--- a/percentages0to23.xlsx
+++ b/percentages0to23.xlsx
@@ -540,7 +540,7 @@
         <v>0.39506798221478</v>
       </c>
       <c r="I2">
-        <v>284005.914465187</v>
+        <v>329103.693693805</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -569,7 +569,7 @@
         <v>0.439626748656737</v>
       </c>
       <c r="I3">
-        <v>284005.914465187</v>
+        <v>701551.002510206</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -598,7 +598,7 @@
         <v>0.429996826886908</v>
       </c>
       <c r="I4">
-        <v>284005.914465187</v>
+        <v>441789.376887642</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -627,7 +627,7 @@
         <v>0.425457095405877</v>
       </c>
       <c r="I5">
-        <v>284005.914465187</v>
+        <v>451534.436333084</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -656,7 +656,7 @@
         <v>0.440333789932408</v>
       </c>
       <c r="I6">
-        <v>284005.914465187</v>
+        <v>171990.026373752</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -685,7 +685,7 @@
         <v>0.408540025552325</v>
       </c>
       <c r="I7">
-        <v>284005.914465187</v>
+        <v>592102.356516407</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -714,7 +714,7 @@
         <v>0.445182073160152</v>
       </c>
       <c r="I8">
-        <v>284005.914465187</v>
+        <v>49815.2317675977</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -743,7 +743,7 @@
         <v>0.392292321470254</v>
       </c>
       <c r="I9">
-        <v>284005.914465187</v>
+        <v>39483.7511949575</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -772,7 +772,7 @@
         <v>0.430566310599204</v>
       </c>
       <c r="I10">
-        <v>284005.914465187</v>
+        <v>148319.45906725</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -801,7 +801,7 @@
         <v>0.413690989005852</v>
       </c>
       <c r="I11">
-        <v>284005.914465187</v>
+        <v>541203.407254215</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -830,7 +830,7 @@
         <v>0.342245676352837</v>
       </c>
       <c r="I12">
-        <v>284005.914465187</v>
+        <v>251065.136102727</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -859,7 +859,7 @@
         <v>0.435684306837054</v>
       </c>
       <c r="I13">
-        <v>284005.914465187</v>
+        <v>44308.3648760668</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -888,7 +888,7 @@
         <v>0.403845129196374</v>
       </c>
       <c r="I14">
-        <v>284005.914465187</v>
+        <v>21874.2291048149</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -917,7 +917,7 @@
         <v>0.420929773046978</v>
       </c>
       <c r="I15">
-        <v>284005.914465187</v>
+        <v>149138.884004446</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -946,7 +946,7 @@
         <v>0.411338744014514</v>
       </c>
       <c r="I16">
-        <v>284005.914465187</v>
+        <v>331583.638439685</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -975,7 +975,7 @@
         <v>0.428091245357984</v>
       </c>
       <c r="I17">
-        <v>284005.914465187</v>
+        <v>438268.33472192</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -1004,7 +1004,7 @@
         <v>0.425423413186176</v>
       </c>
       <c r="I18">
-        <v>284005.914465187</v>
+        <v>558321.153336126</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -1033,7 +1033,7 @@
         <v>0.407952390519171</v>
       </c>
       <c r="I19">
-        <v>284005.914465187</v>
+        <v>114537.09345709</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -1062,7 +1062,7 @@
         <v>0.409857080089799</v>
       </c>
       <c r="I20">
-        <v>284005.914465187</v>
+        <v>428107.911233891</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -1091,7 +1091,7 @@
         <v>0.419280294442505</v>
       </c>
       <c r="I21">
-        <v>284005.914465187</v>
+        <v>223293.297966024</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1120,7 +1120,7 @@
         <v>0.434847638139174</v>
       </c>
       <c r="I22">
-        <v>284005.914465187</v>
+        <v>663806.497950843</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1149,7 +1149,7 @@
         <v>0.42385370604862</v>
       </c>
       <c r="I23">
-        <v>284005.914465187</v>
+        <v>123540.475786862</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1178,7 +1178,7 @@
         <v>0.411826350538513</v>
       </c>
       <c r="I24">
-        <v>284005.914465187</v>
+        <v>203780.291171594</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1207,7 +1207,7 @@
         <v>0.406666536102755</v>
       </c>
       <c r="I25">
-        <v>284005.914465187</v>
+        <v>261494.489677788</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1236,7 +1236,7 @@
         <v>0.38696566129058</v>
       </c>
       <c r="I26">
-        <v>284005.914465187</v>
+        <v>269497.533217071</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1265,7 +1265,7 @@
         <v>0.424128898086357</v>
       </c>
       <c r="I27">
-        <v>284005.914465187</v>
+        <v>372968.805193214</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1294,7 +1294,7 @@
         <v>0.399609675219435</v>
       </c>
       <c r="I28">
-        <v>284005.914465187</v>
+        <v>415066.605311466</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1323,7 +1323,7 @@
         <v>0.428517685204643</v>
       </c>
       <c r="I29">
-        <v>284005.914465187</v>
+        <v>316530.264568904</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1352,7 +1352,7 @@
         <v>0.44010453534929</v>
       </c>
       <c r="I30">
-        <v>284005.914465187</v>
+        <v>567262.724879607</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1381,7 +1381,7 @@
         <v>0.415100708497485</v>
       </c>
       <c r="I31">
-        <v>284005.914465187</v>
+        <v>403380.154710745</v>
       </c>
     </row>
   </sheetData>
